--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/15/seed2/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.559599999999996</v>
+        <v>-7.370799999999996</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.1251</v>
+        <v>-22.0431</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.8564</v>
+        <v>-21.85200000000001</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.06649999999999</v>
+        <v>-20.02459999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.49419999999998</v>
+        <v>-20.63999999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.8739</v>
+        <v>-21.82059999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.203200000000002</v>
+        <v>-8.301600000000002</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.07069999999997</v>
+        <v>-21.01799999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.810100000000002</v>
+        <v>-8.835500000000007</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.81209999999998</v>
+        <v>-20.88259999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.492600000000005</v>
+        <v>-8.497800000000007</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.925799999999997</v>
+        <v>-7.850199999999997</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.388799999999999</v>
+        <v>-7.337899999999998</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.790799999999996</v>
+        <v>-7.818099999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.776099999999999</v>
+        <v>-7.721899999999997</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.8534</v>
+        <v>-21.83379999999999</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.265499999999996</v>
+        <v>-8.104599999999994</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.840999999999999</v>
+        <v>-7.892599999999998</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.393</v>
+        <v>-22.35990000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.453400000000006</v>
+        <v>-8.390700000000002</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.1765</v>
+        <v>-22.2342</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.59839999999999</v>
+        <v>-21.64399999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.782199999999997</v>
+        <v>-7.934499999999996</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.11070000000001</v>
+        <v>-20.17170000000002</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.84709999999999</v>
+        <v>-21.91329999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.927499999999998</v>
+        <v>-6.014100000000002</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-8.011700000000005</v>
+        <v>-8.097800000000001</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.44110000000003</v>
+        <v>-21.38030000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.1084</v>
+        <v>-6.161800000000002</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.88539999999999</v>
+        <v>-21.01779999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
